--- a/Audio_Asset_Sheet.xlsx
+++ b/Audio_Asset_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Documents\GitHub\ct5034-platformer-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B35BAE-AADE-470D-A4AA-700ADF2AA5A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAA1C70-7B1D-4681-8ACA-D2344838F285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Original Assets Used</t>
   </si>
@@ -87,16 +87,9 @@
     <t>e.g.</t>
   </si>
   <si>
-    <t>1. LowPass used to remove bass tones to produce a tinny zapping tone. 
-2. Automation on volume used linked to ammo count to change sound when ammo is low.</t>
-  </si>
-  <si>
     <t>FMOD Event Name</t>
   </si>
   <si>
-    <t>PlayerLaserRifle</t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -109,16 +102,6 @@
     <t>FMOD Effects Used</t>
   </si>
   <si>
-    <t>1. Scatterer Sound
-2. Volume Automation
-3. 3D Spatializer</t>
-  </si>
-  <si>
-    <t>1. "WeirdScifiSound" - freesound.org/weirdscifisound
-2. "ZapZap" - airbournesound.com/scifisounds
-3. "Click" - freesound.org/click001</t>
-  </si>
-  <si>
     <t>DAW Effects Used</t>
   </si>
   <si>
@@ -126,9 +109,6 @@
   </si>
   <si>
     <t>UE4 Trigger</t>
-  </si>
-  <si>
-    <t>Triggers when the player fires the Laser Rifle weapon.</t>
   </si>
   <si>
     <t>CT5034 Asset Sheet - Assignment 1</t>
@@ -151,11 +131,6 @@
   </si>
   <si>
     <t>Platformer</t>
-  </si>
-  <si>
-    <t>1. Audacity: bass boost EQ and slow speed for intended gun sound.
-2. Abelton MIDI keyboard &amp; instruments for various ambiance.
-3. Transposed "enginerev" to sound like a different vehicle.</t>
   </si>
   <si>
     <t>Wheel Spin</t>
@@ -174,6 +149,12 @@
   </si>
   <si>
     <t>1. Reduced gap between squeaks - increase tempo.</t>
+  </si>
+  <si>
+    <t>1. Audacity: bass boost EQ and slow speed for intended gun sound.
+2. Abelton MIDI keyboard &amp; instruments for various ambiance.
+3. Transposed "enginerev" to sound like a different vehicle.
+4. Used panning automation on each car sound</t>
   </si>
 </sst>
 </file>
@@ -237,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,6 +317,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,13 +351,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>627530</xdr:rowOff>
+      <xdr:rowOff>743814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2066617</xdr:colOff>
+      <xdr:colOff>1937106</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1669676</xdr:rowOff>
+      <xdr:rowOff>1669675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -390,8 +387,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1141319" y="1932455"/>
-          <a:ext cx="3944723" cy="1042146"/>
+          <a:off x="1142496" y="2038786"/>
+          <a:ext cx="3502279" cy="925861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -480,7 +477,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1455506</xdr:colOff>
+      <xdr:colOff>1455507</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>21405</xdr:rowOff>
     </xdr:to>
@@ -865,48 +862,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55" customWidth="1"/>
-    <col min="7" max="7" width="49.28515625" customWidth="1"/>
+    <col min="7" max="7" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="5"/>
       <c r="E2" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -918,25 +915,25 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -944,19 +941,17 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,37 +959,24 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1157,14 +1139,14 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
+      <c r="B27" s="18">
         <v>20</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="10">

--- a/Audio_Asset_Sheet.xlsx
+++ b/Audio_Asset_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Documents\GitHub\ct5034-platformer-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAA1C70-7B1D-4681-8ACA-D2344838F285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C984232-9B9D-4986-8FFE-40AB35C0668D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="114">
   <si>
     <t>Original Assets Used</t>
   </si>
@@ -114,16 +114,9 @@
     <t>CT5034 Asset Sheet - Assignment 1</t>
   </si>
   <si>
-    <t>Intro Cinematic</t>
-  </si>
-  <si>
     <t>As soon as play button is hit.</t>
   </si>
   <si>
-    <t>1. "EngineRev" - youtube audio
-2. "minigun" - https://freesound.org/people/scorepion/sounds/424917/</t>
-  </si>
-  <si>
     <t>Joshua Shelley-Sak</t>
   </si>
   <si>
@@ -131,17 +124,6 @@
   </si>
   <si>
     <t>Platformer</t>
-  </si>
-  <si>
-    <t>Wheel Spin</t>
-  </si>
-  <si>
-    <t>1. Scatterer Sound
-2. Volume Automation
-3. Random Modulation</t>
-  </si>
-  <si>
-    <t>When the camera is in range of object</t>
   </si>
   <si>
     <t>1. "Wheel squeak" - https://freesound.org/people/rdneubauer/sounds/93783
@@ -155,6 +137,345 @@
 2. Abelton MIDI keyboard &amp; instruments for various ambiance.
 3. Transposed "enginerev" to sound like a different vehicle.
 4. Used panning automation on each car sound</t>
+  </si>
+  <si>
+    <t>1. EngineRev - https://www.youtube.com/watch?v=0xhy449OWr0
+2. Tire Screetch - https://www.youtube.com/watch?v=D_lvkcjC2Ls
+3. Shouting  - https://freesound.org/people/eyecandyuk/sounds/34953
+4. Minigun - https://freesound.org/people/scorepion/sounds/424917/
+5. Explosion - https://freesound.org/people/cydon/sounds/268557</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>WheelSpinZap</t>
+  </si>
+  <si>
+    <t>Metal Bang</t>
+  </si>
+  <si>
+    <t>Van Breakout</t>
+  </si>
+  <si>
+    <t>1. Multi instrument
+2. Sequencial global scope</t>
+  </si>
+  <si>
+    <t>After the intro cinematic, each time you press space bar it increases an int in the level blueprint and plays the multi instrument in order until all 3 sounds are played.</t>
+  </si>
+  <si>
+    <t>When the camera is in range of object.</t>
+  </si>
+  <si>
+    <t>1. EQ &amp; normalise sound in audacity
+2. Cutup individual sounds in audacity.
+3. Add other hitting sounds to the third bang as metal door hits the floor.
+4. Mixing of sounds in audacity</t>
+  </si>
+  <si>
+    <t>Soundtrack</t>
+  </si>
+  <si>
+    <t>After van breakout is completed</t>
+  </si>
+  <si>
+    <t>All created in Ableton Live using midi keyboard and various inbuilt instruments:
+1. "Minor to Major Lead"
+2. "Sandblaster Lead"
+3. "Sandman"
+4. "4 Kit-Core Formaggio 2"
+5. "5 Byte Sized Bass_crk"
+6. "Autosinfonie"
+7. "Thicket Auto Dub Siren"
+8. "8 Off World Strings"</t>
+  </si>
+  <si>
+    <t>1. Chord &amp; Arpeggiator MIDI effects  on instrument '2'
+2. EQ on the drum kit sounds
+3. Volume mixing
+4. Track panning (R to L)</t>
+  </si>
+  <si>
+    <t>Balcony Crash</t>
+  </si>
+  <si>
+    <t>Ground Ambience (2D / 3D)</t>
+  </si>
+  <si>
+    <t>1. Scatterer Instrument
+2. Volume Automation
+3. Random Modulation</t>
+  </si>
+  <si>
+    <t>1. Scatterer Instrument
+2. Volume Random Modulation
+3. Pitch Random Modulation</t>
+  </si>
+  <si>
+    <t>Trigger box for specific height throughout the map</t>
+  </si>
+  <si>
+    <t>1. Car beep  - https://freesound.org/people/keweldog/sounds/182474/
+2. Siren amb - https://freesound.org/people/allanh15/sounds/353177/
+3. Horn 2 - https://freesound.org/people/dj997/sounds/493751/
+4. Horn 3 - https://freesound.org/people/3863/sounds/235363/
+5. Ambience - https://freesound.org/people/THPSounds/sounds/387313</t>
+  </si>
+  <si>
+    <t>When the player runs through the middle of the balconies</t>
+  </si>
+  <si>
+    <t>1. Metal banging - https://freesound.org/people/Razzvio/sounds/79569/
+2. Bang Explosion - https://freesound.org/people/Werra/sounds/244394/
+3. Metal hitting floor - https://freesound.org/people/jorickhoofd/sounds/160077</t>
+  </si>
+  <si>
+    <t>1. Bang explosion (Reused from above)
+2. Explosion 2 - https://freesound.org/people/cydon/sounds/268557
+3. Metal collision - https://freesound.org/people/RutgerMuller/sounds/51044/
+4. Metallic crash - https://freesound.org/people/BehanSean/sounds/422438/</t>
+  </si>
+  <si>
+    <t>1. Cutting up clips and normalising (EQ)</t>
+  </si>
+  <si>
+    <t>Car Explosion</t>
+  </si>
+  <si>
+    <t>When the player jumps ontop of a car</t>
+  </si>
+  <si>
+    <t>Helicopter Flyby</t>
+  </si>
+  <si>
+    <t>Matinee of first helicopter</t>
+  </si>
+  <si>
+    <t>Helicopter Crash</t>
+  </si>
+  <si>
+    <t>1. Volume automation
+2. Shorten Clip</t>
+  </si>
+  <si>
+    <t>Loose matinee when player's finish time is slow</t>
+  </si>
+  <si>
+    <t>1. Same as above</t>
+  </si>
+  <si>
+    <t>1. helicopter - http://soundbible.com/1621-Best-Helicopter-Pass.html</t>
+  </si>
+  <si>
+    <t>1. Car Explosion - https://freesound.org/people/EFlexMusic/sounds/396270/</t>
+  </si>
+  <si>
+    <t>Helicopter Loop</t>
+  </si>
+  <si>
+    <t>1. Crossfade duplicate tracks
+2. Loop region</t>
+  </si>
+  <si>
+    <t>Various helicopter matinee triggers</t>
+  </si>
+  <si>
+    <t>1. https://freesound.org/people/lorenzosu/sounds/49481/</t>
+  </si>
+  <si>
+    <t>HydrantExplode</t>
+  </si>
+  <si>
+    <t>When the player enters the collision trigger box at a specific velocity on the Z (vertical) axis.</t>
+  </si>
+  <si>
+    <t>1. Water explosion - https://freesound.org/people/Sheyvan/sounds/519008/
+2. Container impact - https://freesound.org/people/jorickhoofd/sounds/160045
+3. Bang explosion (Reused from above)
+4. Metal clang - https://freesound.org/people/Timbre/sounds/91697
+5. Metal clang 2 - https://freesound.org/people/debsound/sounds/168822/</t>
+  </si>
+  <si>
+    <t>Lift Loop</t>
+  </si>
+  <si>
+    <t>1. Lift - https://freesound.org/people/estlacksensory/sounds/118715/</t>
+  </si>
+  <si>
+    <t>Lift Stop</t>
+  </si>
+  <si>
+    <t>1. Lift Stop - https://freesound.org/people/estlacksensory/sounds/118715/</t>
+  </si>
+  <si>
+    <t>1. Audacity reverse and crossfade to create a looping sound.</t>
+  </si>
+  <si>
+    <t>Lift moving</t>
+  </si>
+  <si>
+    <t>Lift stopping</t>
+  </si>
+  <si>
+    <t>Police Siren</t>
+  </si>
+  <si>
+    <t>1. Loop region</t>
+  </si>
+  <si>
+    <t>Placed around in scenes</t>
+  </si>
+  <si>
+    <t>1. Sirens - https://freesound.org/people/drewkelly/sounds/117181/</t>
+  </si>
+  <si>
+    <t>Shouting</t>
+  </si>
+  <si>
+    <t>1. Multi instrument</t>
+  </si>
+  <si>
+    <t>Helicopter matinees</t>
+  </si>
+  <si>
+    <t>1. Voicemod of my own voice recordings for multiple sounds</t>
+  </si>
+  <si>
+    <t>Sky Ambience (2D / 3D)</t>
+  </si>
+  <si>
+    <t>If the player goes above a certain height</t>
+  </si>
+  <si>
+    <t>1. Wind ambience - https://freesound.org/people/Astounded/sounds/483479</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>When the player collects a time bonus</t>
+  </si>
+  <si>
+    <t>1. Bell - https://freesound.org/people/InspectorJ/sounds/415510
+2. Ding sound - https://freesound.org/people/wildweasel/sounds/39026
+3. Ticking sound - https://freesound.org/people/Juber101/sounds/506543
+4. Alarm beep - https://freesound.org/people/ZyryTSounds/sounds/219244</t>
+  </si>
+  <si>
+    <t>1. Phasing automation to give the sound of increasing time.</t>
+  </si>
+  <si>
+    <t>SlowMo</t>
+  </si>
+  <si>
+    <t>When the slow motion events are triggered</t>
+  </si>
+  <si>
+    <t>1. Initial sound time slowing - https://freesound.org/people/Timbre/sounds/109213/
+2. Wind chime - https://freesound.org/people/InspectorJ/sounds/411090/
+3. Bass thumb - https://freesound.org/people/Puniho/sounds/116678/</t>
+  </si>
+  <si>
+    <t>1. Cutting up clips
+2. Changing pitch, speed and EQ of wind chimes
+3. Reversing clips of wind chimes to make it sounds like time slowing down
+4. Mixing clips together</t>
+  </si>
+  <si>
+    <t>WinCamera</t>
+  </si>
+  <si>
+    <t>When the photo is taken after a win state</t>
+  </si>
+  <si>
+    <t>1. Polaroid picture - https://freesound.org/people/satanicupsman/sounds/345906/</t>
+  </si>
+  <si>
+    <t>1. Changin pitch, speed and EQ of picture sound</t>
+  </si>
+  <si>
+    <t>WinSound</t>
+  </si>
+  <si>
+    <t>1. Pitch random modulcation</t>
+  </si>
+  <si>
+    <t>In the win matinee</t>
+  </si>
+  <si>
+    <t>1. Robot win sound - https://freesound.org/people/myrararara/sounds/412800</t>
+  </si>
+  <si>
+    <t>Chatter_Long</t>
+  </si>
+  <si>
+    <t>1. Multi Instrument</t>
+  </si>
+  <si>
+    <t>Chatter_Pain</t>
+  </si>
+  <si>
+    <t>When the player is injured</t>
+  </si>
+  <si>
+    <t>Certain character animations</t>
+  </si>
+  <si>
+    <t>Chatter_Run</t>
+  </si>
+  <si>
+    <t>When the character is running</t>
+  </si>
+  <si>
+    <t>1. Multi Instrument
+2. Trigger chance (in UE4)</t>
+  </si>
+  <si>
+    <t>Chatter_Short</t>
+  </si>
+  <si>
+    <t>Various animations and events</t>
+  </si>
+  <si>
+    <t>Footsteps_Generic</t>
+  </si>
+  <si>
+    <t>1. Robot walk - https://freesound.org/people/JarAxe/sounds/204431/</t>
+  </si>
+  <si>
+    <t>Footsteps_Land</t>
+  </si>
+  <si>
+    <t>1. Large machine walking - https://freesound.org/people/john129pats/sounds/146575/</t>
+  </si>
+  <si>
+    <t>Landing animations and various events</t>
+  </si>
+  <si>
+    <t>1. Multi Instrument
+2. Pitch random modulation</t>
+  </si>
+  <si>
+    <t>When the player runs into something</t>
+  </si>
+  <si>
+    <t>1. Bang explosion (Reused from above)
+2. Metal clang - https://freesound.org/people/Timbre/sounds/91697</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>When the player slides</t>
+  </si>
+  <si>
+    <t>1. Bucket sliding - https://freesound.org/people/daveincamas/sounds/25585
+2. Rocks crumbling - https://freesound.org/people/adamgryu/sounds/336023</t>
+  </si>
+  <si>
+    <t>1. Mixing tracks together
+2. Cutting up clips and normalising (EQ)</t>
   </si>
 </sst>
 </file>
@@ -218,7 +539,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,12 +567,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,15 +598,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -317,14 +629,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,16 +791,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3007332</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>363877</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>85618</xdr:rowOff>
+      <xdr:rowOff>96320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1455507</xdr:colOff>
+      <xdr:colOff>2482922</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>21405</xdr:rowOff>
+      <xdr:rowOff>32107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -508,7 +829,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11569130" y="1380590"/>
+          <a:off x="13730984" y="1391292"/>
           <a:ext cx="2119045" cy="2119045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -521,13 +842,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1605336</xdr:colOff>
+      <xdr:colOff>3456825</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>406685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2996628</xdr:colOff>
+      <xdr:colOff>4848117</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1797977</xdr:rowOff>
     </xdr:to>
@@ -558,7 +879,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10167134" y="1701657"/>
+          <a:off x="11708258" y="1701657"/>
           <a:ext cx="1391292" cy="1391292"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -862,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,47 +1192,47 @@
     <col min="2" max="2" width="5.28515625" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" customWidth="1"/>
+    <col min="6" max="6" width="77.85546875" customWidth="1"/>
     <col min="7" max="7" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" s="5"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="6" spans="1:7" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -933,418 +1254,652 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
         <v>13</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20">
+        <v>20</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="18">
-        <v>20</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
-        <v>22</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
-        <v>25</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
-        <v>26</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
-        <v>27</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="10">
+      <c r="D34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
         <v>28</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>29</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="7"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>30</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="7"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>31</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="7"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>32</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="7"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>33</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>34</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="7"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>35</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="7"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>36</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="7"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>37</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="7"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>38</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="7"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>39</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="7"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>40</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="7"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
